--- a/Data_Ditch/ManualMeasurements/ManualMeasurements.xlsx
+++ b/Data_Ditch/ManualMeasurements/ManualMeasurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\Data_Ditch\ManualMeasurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85745A9B-1386-4FA5-BAAB-37066E00F25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CB7591-2901-4C24-AA13-67BA9D1782D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D327A03-8F0C-4B96-810B-5308E1F22393}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,12 +436,12 @@
         <v>84</v>
       </c>
       <c r="E2">
-        <f>1921+D2</f>
-        <v>2005</v>
+        <f>1913+D2</f>
+        <v>1997</v>
       </c>
       <c r="F2">
         <f>E2/100</f>
-        <v>20.05</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -460,12 +460,12 @@
         <v>84</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="2">1921+D3</f>
-        <v>2005</v>
+        <f t="shared" ref="E3:E4" si="2">1913+D3</f>
+        <v>1997</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="3">E3/100</f>
-        <v>20.05</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -485,11 +485,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
-        <v>20.04</v>
+        <v>19.96</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Ditch/ManualMeasurements/ManualMeasurements.xlsx
+++ b/Data_Ditch/ManualMeasurements/ManualMeasurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\Data_Ditch\ManualMeasurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CB7591-2901-4C24-AA13-67BA9D1782D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA37E17-7749-4DD0-BA08-063B9DE37B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D327A03-8F0C-4B96-810B-5308E1F22393}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7220E331-83BC-4688-93C3-BFDE233DE7B7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,19 +452,19 @@
         <v>205</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C4" si="0">294-B3</f>
+        <f t="shared" ref="C3:C5" si="0">294-B3</f>
         <v>89</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="1">C3-5</f>
+        <f t="shared" ref="D3:D5" si="1">C3-5</f>
         <v>84</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="2">1913+D3</f>
+        <f t="shared" ref="E3:E5" si="2">1913+D3</f>
         <v>1997</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F4" si="3">E3/100</f>
+        <f t="shared" ref="F3:F5" si="3">E3/100</f>
         <v>19.97</v>
       </c>
     </row>
@@ -490,6 +490,30 @@
       <c r="F4">
         <f t="shared" si="3"/>
         <v>19.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1952</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>
